--- a/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
+++ b/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
+++ b/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn phụ phẫu 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,14 +416,259 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>528</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>800000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>800000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>800000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>800000</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -559,11 +806,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -573,26 +820,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Treo cung</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="J2" t="n">
         <v/>
@@ -601,38 +848,36 @@
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="M2" t="n">
-        <v>25000000</v>
+        <v/>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Bác Sĩ Thảo</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="R2" t="n">
         <v/>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S2" t="n">
+        <v/>
       </c>
       <c r="T2" t="n">
         <v/>
       </c>
       <c r="U2" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -654,33 +899,33 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="M3" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -689,4 +934,627 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>516</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>thạch thuỳ lương</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Treo cung</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>519</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>520</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>522</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ngọc linh </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Làm má Lúm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>529</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>67500000</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>67500000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>64500000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>64500000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>200000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
+++ b/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
@@ -10,7 +10,8 @@
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Đơn phụ phẫu 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lương" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,82 +458,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -567,31 +593,33 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Môi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Tiêm môi</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>800000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
         <v>800000</v>
       </c>
-      <c r="M2" t="n">
-        <v/>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -599,14 +627,14 @@
       <c r="P2" t="n">
         <v>800000</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
       <c r="S2" t="n">
         <v/>
       </c>
@@ -614,9 +642,24 @@
         <v/>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>80000</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -635,21 +678,19 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>800000</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>800000</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -657,14 +698,29 @@
       <c r="P3" t="n">
         <v>800000</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -679,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,82 +776,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -830,31 +911,33 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Môi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Tiêm môi</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>800000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
         <v>800000</v>
       </c>
-      <c r="M2" t="n">
-        <v/>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -862,14 +945,14 @@
       <c r="P2" t="n">
         <v>800000</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
       <c r="S2" t="n">
         <v/>
       </c>
@@ -877,57 +960,287 @@
         <v/>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>80000</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>532</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ngô  xuân nghi</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>688000</v>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v>688000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>688000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>688000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>68800</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>541</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xuân diệu </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>120000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>800000</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>800000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>800000</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>2688000</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2688000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2688000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2688000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>268800</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -942,7 +1255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,82 +1296,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -1093,58 +1431,75 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Ngực</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Treo cung</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>25000000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>25000000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v>25000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>25000000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Bác Sĩ Thảo</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
       <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
         <v>50000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1179,58 +1534,75 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>21500000</v>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
       <c r="K3" t="n">
         <v/>
       </c>
       <c r="L3" t="n">
-        <v>21500000</v>
+        <v/>
       </c>
       <c r="M3" t="n">
         <v>21500000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>21500000</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>21500000</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
       <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
         <v>50000</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1265,56 +1637,73 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>11000000</v>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
       <c r="K4" t="n">
         <v/>
       </c>
       <c r="L4" t="n">
-        <v>11000000</v>
+        <v/>
       </c>
       <c r="M4" t="n">
         <v>11000000</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>11000000</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v/>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
       <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
         <v>50000</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1349,56 +1738,73 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Làm má Lúm</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3000000</v>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
       <c r="K5" t="n">
         <v/>
       </c>
       <c r="L5" t="n">
-        <v>3000000</v>
+        <v/>
       </c>
       <c r="M5" t="n">
         <v>3000000</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>3000000</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v/>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
       <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
         <v>50000</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1433,59 +1839,76 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>7000000</v>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
       <c r="K6" t="n">
         <v/>
       </c>
       <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
         <v>7000000</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>4000000</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>4000000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
       <c r="U6" t="n">
         <v/>
       </c>
       <c r="V6" t="n">
-        <v/>
+        <v>50000</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>600000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1503,36 +1926,49 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>67500000</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>67500000</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>64500000</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>64500000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>200000</v>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
+        <v>250000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>600000</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1547,14 +1983,361 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>147</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-120</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>367500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>268800</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
+++ b/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Lương" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn phụ phẫu 1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Đơn thu nợ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lương" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +594,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Môi</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -666,47 +667,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>562</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trần yến vi </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
       <c r="J3" t="n">
-        <v>800000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>1600000</v>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M3" t="n">
-        <v>800000</v>
+        <v>1600000</v>
       </c>
       <c r="N3" t="n">
-        <v>800000</v>
+        <v/>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>1600000</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -718,9 +759,70 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>800000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>800000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>80000</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -735,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,11 +989,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -901,56 +1003,56 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Môi</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tiêm môi</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>800000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
-      <c r="L2" t="n">
-        <v/>
-      </c>
       <c r="M2" t="n">
-        <v>800000</v>
+        <v>1300000</v>
       </c>
       <c r="N2" t="n">
-        <v>800000</v>
+        <v>1300000</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>800000</v>
+        <v>1300000</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -969,279 +1071,77 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" t="n">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>07-08-2024</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ngô  xuân nghi</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Tiêm Filler</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>688000</v>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
+        <v>500000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v/>
+        <v>800000</v>
       </c>
       <c r="M3" t="n">
-        <v>688000</v>
+        <v>1300000</v>
       </c>
       <c r="N3" t="n">
-        <v>688000</v>
+        <v>1300000</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>688000</v>
+        <v>1300000</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z3" t="n">
-        <v>68800</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>541</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>07-12-2024</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">xuân diệu </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Tiêm Filler</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>120000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>2688000</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2688000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2688000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2688000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>268800</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,11 +1307,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1421,31 +1321,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ngực</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Treo cung</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="K2" t="n">
         <v/>
@@ -1454,50 +1354,48 @@
         <v/>
       </c>
       <c r="M2" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="N2" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25000000</v>
+        <v>800000</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Bác Sĩ Thảo</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="S2" t="n">
         <v/>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="T2" t="n">
+        <v/>
       </c>
       <c r="U2" t="n">
         <v/>
       </c>
       <c r="V2" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1510,11 +1408,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1524,17 +1422,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1544,11 +1442,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>21500000</v>
+        <v>688000</v>
       </c>
       <c r="K3" t="n">
         <v/>
@@ -1557,32 +1455,30 @@
         <v/>
       </c>
       <c r="M3" t="n">
-        <v>21500000</v>
+        <v>688000</v>
       </c>
       <c r="N3" t="n">
-        <v>21500000</v>
+        <v>688000</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>21500000</v>
+        <v>688000</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="S3" t="n">
         <v/>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="T3" t="n">
+        <v/>
       </c>
       <c r="U3" t="n">
         <v/>
@@ -1594,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>68800</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1613,11 +1509,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1627,17 +1523,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1647,11 +1543,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>11000000</v>
+        <v>1200000</v>
       </c>
       <c r="K4" t="n">
         <v/>
@@ -1660,30 +1556,30 @@
         <v/>
       </c>
       <c r="M4" t="n">
-        <v>11000000</v>
+        <v>1200000</v>
       </c>
       <c r="N4" t="n">
-        <v>11000000</v>
+        <v>1200000</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>11000000</v>
+        <v>1200000</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="n">
-        <v/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="S4" t="n">
         <v/>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="T4" t="n">
+        <v/>
       </c>
       <c r="U4" t="n">
         <v/>
@@ -1695,13 +1591,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1714,11 +1610,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>07-17-2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1728,31 +1624,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Làm má Lúm</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="K5" t="n">
         <v/>
@@ -1761,30 +1657,30 @@
         <v/>
       </c>
       <c r="M5" t="n">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="N5" t="n">
-        <v>3000000</v>
+        <v/>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v/>
+        <v>1600000</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="S5" t="n">
         <v/>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="T5" t="n">
+        <v/>
       </c>
       <c r="U5" t="n">
         <v/>
@@ -1796,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1811,164 +1707,61 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>529</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>07-07-2024</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nguyễn thị hân</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Vùng mắt</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
+        <v>4288000</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>7000000</v>
+        <v>4288000</v>
       </c>
       <c r="N6" t="n">
-        <v>4000000</v>
+        <v>2688000</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4000000</v>
+        <v>2688000</v>
       </c>
       <c r="Q6" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
+        <v>1600000</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>600000</v>
+        <v>268800</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>67500000</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>67500000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>64500000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>64500000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>250000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>600000</v>
-      </c>
-      <c r="AA7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1983,7 +1776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1999,12 +1792,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Mã dịch vụ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -2014,32 +1807,132 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Ngày thu</t>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147</v>
+        <v>516</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-120</t>
+          <t>07-02-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2047,36 +1940,663 @@
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1000000</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>thạch thuỳ lương</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Treo cung</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>07-12-2024</t>
-        </is>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>519</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>520</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>522</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ngọc linh </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Làm má Lúm</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>529</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>910000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>553</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>97500000</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>97500000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>89500000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>97500000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>350000</v>
+      </c>
+      <c r="W8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>4810000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2089,7 +2609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2100,6 +2620,335 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>02-27-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>63356797-89d1-493a-98a6-7be16bbe2231</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>147</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1936e1d1-5f3d-4bd1-b469-a1951eadb081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-120</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục</t>
         </is>
       </c>
@@ -2114,7 +2963,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -2124,7 +2973,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>367500</v>
+        <v>455000</v>
       </c>
     </row>
     <row r="4">
@@ -2200,27 +3049,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2230,7 +3079,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2240,7 +3089,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2250,7 +3099,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2260,7 +3109,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2270,71 +3119,141 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2630178.571428571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>268800</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>250000</v>
+        <v>268800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6322478.571428571</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6322478.571428571</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
+++ b/report_ca_nhan/NV-16 Kha Như Huỳnh  7-2024.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,107 +459,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -594,74 +529,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Tiêm môi</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="H2" t="n">
+        <v>800000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>800000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>800000</v>
       </c>
       <c r="M2" t="n">
-        <v>800000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>800000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>800000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>80000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -695,74 +585,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="H3" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>1600000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>1600000</v>
       </c>
       <c r="M3" t="n">
-        <v>1600000</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="4">
@@ -779,51 +624,24 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>2400000</v>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>2400000</v>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2400000</v>
       </c>
       <c r="M4" t="n">
-        <v>2400000</v>
+        <v>0.2</v>
       </c>
       <c r="N4" t="n">
-        <v>800000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>800000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>80000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,105 +696,40 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
         <is>
           <t>Chiết khấu sale phụ</t>
         </is>
@@ -1013,73 +766,30 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Điêu khắc mày</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="H2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+        <v>800000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1300000</v>
       </c>
       <c r="L2" t="n">
-        <v>800000</v>
+        <v>1300000</v>
       </c>
       <c r="M2" t="n">
-        <v>1300000</v>
+        <v>0.02</v>
       </c>
       <c r="N2" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
         <v>26000</v>
       </c>
     </row>
@@ -1097,50 +807,23 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>500000</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>800000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1300000</v>
+      </c>
       <c r="L3" t="n">
-        <v>800000</v>
+        <v>1300000</v>
       </c>
       <c r="M3" t="n">
-        <v>1300000</v>
+        <v>0.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
         <v>26000</v>
       </c>
     </row>
@@ -1155,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1196,107 +879,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
     </row>
@@ -1331,74 +949,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Tiêm môi</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="H2" t="n">
+        <v>800000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>800000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>800000</v>
       </c>
       <c r="M2" t="n">
-        <v>800000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>800000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>800000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>80000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1432,74 +1005,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="H3" t="n">
+        <v>688000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>688000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>688000</v>
       </c>
       <c r="M3" t="n">
-        <v>688000</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>688000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>688000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>68800</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1533,74 +1061,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>1200000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>1200000</v>
       </c>
       <c r="M4" t="n">
-        <v>1200000</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>120000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1634,74 +1117,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="H5" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
       <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>1600000</v>
       </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
       <c r="L5" t="n">
-        <v/>
+        <v>1600000</v>
       </c>
       <c r="M5" t="n">
-        <v>1600000</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="6">
@@ -1718,51 +1156,24 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>4288000</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>4288000</v>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>4288000</v>
       </c>
       <c r="M6" t="n">
-        <v>4288000</v>
+        <v>0.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2688000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2688000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
-        <v>150000</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>268800</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
+        <v>428800</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1817,107 +1228,17 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Phụ phẫu 1</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
           <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -1952,76 +1273,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
+          <t>Treo cung</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Treo cung</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
-      <c r="L2" t="n">
-        <v/>
-      </c>
-      <c r="M2" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Thảo</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
+      <c r="I2" t="n">
         <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2055,76 +1316,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiêm</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
+      <c r="I3" t="n">
         <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2158,74 +1359,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
+      <c r="I4" t="n">
         <v>50000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2259,74 +1402,16 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Làm má Lúm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Làm má Lúm</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
+      <c r="I5" t="n">
         <v>50000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2360,76 +1445,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
+      <c r="I6" t="n">
         <v>50000</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>910000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2468,134 +1493,73 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
+      <c r="I7" t="n">
         <v>100000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>568</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>97500000</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>97500000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>89500000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>97500000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="n">
-        <v>350000</v>
-      </c>
-      <c r="W8" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>4810000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>450000</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +1573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2620,97 +1584,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -2720,210 +1684,181 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-27-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>147</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-12-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>63356797-89d1-493a-98a6-7be16bbe2231</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>147</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-120</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1936e1d1-5f3d-4bd1-b469-a1951eadb081</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C.Phượng</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-120</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>12500000</v>
+      </c>
       <c r="L2" t="n">
-        <v>12500000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v/>
       </c>
       <c r="N2" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v/>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
-      <c r="Q2" t="n">
-        <v>6500000</v>
-      </c>
       <c r="R2" t="n">
-        <v>11500000</v>
+        <v>0.1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1</v>
+        <v>100000</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
-        </is>
+      <c r="U2" t="n">
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="C3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1000000</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="K3" t="n">
         <v>12500000</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>12500000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11500000</v>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>6500000</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>11500000</v>
+        <v>0.1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1</v>
+        <v>100000</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2938,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2949,7 +1884,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -3049,37 +1984,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3089,7 +2024,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3099,7 +2034,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3109,7 +2044,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3119,7 +2054,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3129,77 +2064,77 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2630178.571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>180000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26000</v>
+        <v>2630178.571428571</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>268800</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>350000</v>
+        <v>428800</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3209,17 +2144,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1000000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3229,31 +2164,61 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6322478.571428571</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3329978.571428571</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>6322478.571428571</v>
+      <c r="B34" t="n">
+        <v>3329978.571428571</v>
       </c>
     </row>
   </sheetData>
